--- a/results_cnn_subnetwork_evaluation_/sphere_stereo_prj_approx/summary.xlsx
+++ b/results_cnn_subnetwork_evaluation_/sphere_stereo_prj_approx/summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation_\sphere_stereo_prj_approx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6BFEC6-651F-4B72-B6F0-F17AC072C08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0110C0C0-A3CB-40C5-B282-C026C58C5121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pseudoinverse_filtered</t>
+    <t>pseudoinverse_filtered+origin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
